--- a/project/Структура БД.xlsx
+++ b/project/Структура БД.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760"/>
@@ -88,16 +88,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -106,8 +106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3057525" y="409576"/>
-          <a:ext cx="1819275" cy="781049"/>
+          <a:off x="4886325" y="476251"/>
+          <a:ext cx="1952625" cy="1038224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -134,23 +134,45 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Table: access</a:t>
+            <a:t>Table: company_access</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(int) board_id</a:t>
+            <a:t>(INT) user_id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(int) user_id</a:t>
-          </a:r>
-          <a:endParaRPr lang="ru-RU" sz="1400"/>
+            <a:t>(INT) right_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) company_id</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -158,16 +180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -176,8 +198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828801" y="1714501"/>
-          <a:ext cx="1847850" cy="1409699"/>
+          <a:off x="10972801" y="2352675"/>
+          <a:ext cx="3048000" cy="3238500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -227,60 +249,221 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(int) id</a:t>
+            <a:t>(INT) id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(String) login</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(String) e-mail</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(String) password</a:t>
+            <a:t>(VARCHAR(64)) login</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128)) password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(64)) e-mail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(64)) first-name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(64)) middle-name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(64)) second-name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(64)) phone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) department_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) position_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) company_id</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1600"/>
         </a:p>
@@ -290,114 +473,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Прямоугольник 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4257675" y="1714501"/>
-          <a:ext cx="1847850" cy="1333499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>Table: board</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(int) id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(String) name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="Соединительная линия уступом 12"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="0"/>
-          <a:endCxn id="2" idx="2"/>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3098006" y="845345"/>
-          <a:ext cx="523876" cy="1214437"/>
+        <a:xfrm rot="10800000">
+          <a:off x="6838951" y="995363"/>
+          <a:ext cx="4133851" cy="2976562"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -409,14 +507,14 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -427,68 +525,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Соединительная линия уступом 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="0"/>
-          <a:endCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4312444" y="845344"/>
-          <a:ext cx="523876" cy="1214437"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -497,8 +543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943475" y="4000500"/>
-          <a:ext cx="1838325" cy="1619249"/>
+          <a:off x="609600" y="5343526"/>
+          <a:ext cx="3038475" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -525,60 +571,83 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>Table: task</a:t>
+            <a:t>Table: task-group</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(int) id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(String) board_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(String)  name</a:t>
+            <a:t>(INT) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) subproject_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128)) number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128))  name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -587,29 +656,277 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>376238</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Прямоугольник 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="5333999"/>
+          <a:ext cx="3048000" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Table: company</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128)) name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Прямоугольник 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="6677023"/>
+          <a:ext cx="3048000" cy="1314451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Table: project</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) company_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128)) number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128)) name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>307977</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320677</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Соединительная линия уступом 17"/>
+        <xdr:cNvPr id="50" name="Соединительная линия уступом 49"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="0"/>
-          <a:endCxn id="11" idx="2"/>
+          <a:stCxn id="48" idx="0"/>
+          <a:endCxn id="39" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5045869" y="3183731"/>
-          <a:ext cx="952500" cy="681038"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1943102" y="6476999"/>
+          <a:ext cx="400049" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -621,14 +938,1750 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Соединительная линия уступом 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667126" y="852487"/>
+          <a:ext cx="1219199" cy="142876"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Прямоугольник 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3629025"/>
+          <a:ext cx="3048000" cy="1314451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
         <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Table: subproject</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) project_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128)) number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128)) name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314327</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Соединительная линия уступом 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="0"/>
+          <a:endCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1938338" y="3424237"/>
+          <a:ext cx="400051" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Соединительная линия уступом 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="59" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1931194" y="5141120"/>
+          <a:ext cx="400050" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Прямоугольник 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7229475"/>
+          <a:ext cx="3038475" cy="1524001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Table: task</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT) task-group_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128)) number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128))  name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>293689</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>306389</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Соединительная линия уступом 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="0"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1852614" y="6953251"/>
+          <a:ext cx="552449" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Прямоугольник 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867275" y="1914526"/>
+          <a:ext cx="1952625" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Table: project_access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) right_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) project_id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Прямоугольник 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="3495675"/>
+          <a:ext cx="2428875" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Table: subproject_access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) right_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) subproject_id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Прямоугольник 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="5191126"/>
+          <a:ext cx="2428875" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Table: task-group_access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) right_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) task-group_id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Прямоугольник 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="7219950"/>
+          <a:ext cx="2428875" cy="933449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Table: task_access</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) right_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) task_id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Соединительная линия уступом 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="97" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6819901" y="2386013"/>
+          <a:ext cx="4152901" cy="1585912"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Соединительная линия уступом 110"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="100" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7048501" y="3971925"/>
+          <a:ext cx="3924301" cy="14288"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Соединительная линия уступом 112"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="105" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7029451" y="3971924"/>
+          <a:ext cx="3943351" cy="1714501"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Shape 114"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="106" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7029451" y="3971925"/>
+          <a:ext cx="3943351" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Соединительная линия уступом 127"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="97" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667126" y="2381249"/>
+          <a:ext cx="1200149" cy="4764"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Соединительная линия уступом 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="100" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3657600" y="3986213"/>
+          <a:ext cx="962025" cy="109538"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Соединительная линия уступом 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="105" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3648075" y="5686426"/>
+          <a:ext cx="952500" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Соединительная линия уступом 133"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="3"/>
+          <a:endCxn id="106" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3648075" y="7686675"/>
+          <a:ext cx="952500" cy="114301"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Прямоугольник 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="6172200"/>
+          <a:ext cx="1952625" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Table: right</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(VARCHAR(64)) name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>(INT) privilege</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Shape 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5862638" y="476251"/>
+          <a:ext cx="4157662" cy="6219824"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38259"/>
+            <a:gd name="adj2" fmla="val 103675"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Shape 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+          <a:endCxn id="97" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5843588" y="1914527"/>
+          <a:ext cx="4176712" cy="4781549"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 38312"/>
+            <a:gd name="adj2" fmla="val 104781"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Shape 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+          <a:endCxn id="100" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5834064" y="3495675"/>
+          <a:ext cx="4186237" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35495"/>
+            <a:gd name="adj2" fmla="val 107143"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Shape 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+          <a:endCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5815014" y="5191127"/>
+          <a:ext cx="4205287" cy="1504949"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35561"/>
+            <a:gd name="adj2" fmla="val 115190"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Shape 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="1"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5815014" y="6696074"/>
+          <a:ext cx="4205287" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -927,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/project/Структура БД.xlsx
+++ b/project/Структура БД.xlsx
@@ -90,13 +90,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -106,8 +106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4886325" y="476251"/>
-          <a:ext cx="1952625" cy="1038224"/>
+          <a:off x="4886325" y="1047751"/>
+          <a:ext cx="2152650" cy="1038224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -115,13 +115,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -138,17 +138,49 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) user_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>(INT)(PK)(NN) user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) right_id</a:t>
+            <a:t>(INT)(PK)(NN) right_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -171,7 +203,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) company_id</a:t>
+            <a:t>(INT)(PK)(NN) company_id</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -180,16 +212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -198,8 +230,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10972801" y="2352675"/>
-          <a:ext cx="3048000" cy="3238500"/>
+          <a:off x="9144000" y="2076450"/>
+          <a:ext cx="3638549" cy="3238500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -207,13 +239,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -249,83 +281,83 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) id</a:t>
+            <a:t>(INT)(PK)(NN)(AI) id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(64)) login</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(128)) password</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(64)) e-mail</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(64)) first-name</a:t>
+            <a:t>(VARCHAR(64))(NN)(UQ) login</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128))(NN)(UQ) password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(64))(NN)(UQ) e-mail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(64))(NN) first-name</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -371,99 +403,99 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(64)) second-name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(64)) phone</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) department_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) position_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) company_id</a:t>
+            <a:t>(VARCHAR(64))(NN) second-name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(64))(NN) phone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(NN) department_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(NN) position_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(NN) company_id</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1600"/>
         </a:p>
@@ -474,15 +506,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -494,8 +526,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6838951" y="995363"/>
-          <a:ext cx="4133851" cy="2976562"/>
+          <a:off x="7038976" y="1566864"/>
+          <a:ext cx="2105025" cy="2128837"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -507,13 +539,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent3"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -527,13 +559,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -552,13 +584,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -575,33 +607,49 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) subproject_id</a:t>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(PK)(NN)(AI) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(NN) subproject_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -647,7 +695,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(128))  name</a:t>
+            <a:t>(VARCHAR(128))(NN)(UQ) name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -658,13 +706,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -683,13 +731,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -725,30 +773,30 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(128)) name</a:t>
+            <a:t>(INT)(PK)(NN)(AI) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128))(NN)(UQ) name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -759,13 +807,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -784,13 +832,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -826,30 +874,30 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) company_id</a:t>
+            <a:t>(INT)(PK)(NN)(AI) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(NN) company_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -895,7 +943,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(128)) name</a:t>
+            <a:t>(VARCHAR(128))(NN)(UQ) name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -906,13 +954,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>307977</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>187324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>320677</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>15873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -938,13 +986,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="1">
           <a:schemeClr val="accent5"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent5"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -958,13 +1006,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -977,8 +1025,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667126" y="852487"/>
-          <a:ext cx="1219199" cy="142876"/>
+          <a:off x="3640232" y="1423987"/>
+          <a:ext cx="1210234" cy="142876"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -990,13 +1038,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1010,13 +1058,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1035,13 +1083,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1077,30 +1125,30 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) project_id</a:t>
+            <a:t>(INT)(PK)(NN)(AI) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(NN) project_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1146,7 +1194,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(128)) name</a:t>
+            <a:t>(VARCHAR(128))(NN)(UQ) name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1157,13 +1205,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>314327</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1189,13 +1237,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="1">
           <a:schemeClr val="accent5"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent5"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1209,13 +1257,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1241,13 +1289,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="1">
           <a:schemeClr val="accent5"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent5"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1261,13 +1309,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1286,13 +1334,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1309,33 +1357,49 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(INT) task-group_id</a:t>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(PK)(NN)(AI) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(NN) task-group_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1381,7 +1445,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>(VARCHAR(128))  name</a:t>
+            <a:t>(VARCHAR(128))(NN)(UQ)  name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1392,13 +1456,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>293689</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>306389</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1424,13 +1488,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="1">
           <a:schemeClr val="accent5"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent5"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="0">
           <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1444,13 +1508,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1460,8 +1524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867275" y="1914526"/>
-          <a:ext cx="1952625" cy="942974"/>
+          <a:off x="4835899" y="2486026"/>
+          <a:ext cx="2212601" cy="942974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,13 +1533,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1508,17 +1572,49 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) user_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>(INT)(PK)(NN) user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) right_id</a:t>
+            <a:t>(INT)(PK)(NN) right_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1541,7 +1637,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) project_id</a:t>
+            <a:t>(INT)(PK)(NN) project_id</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1552,13 +1648,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1577,13 +1673,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1616,17 +1712,49 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) user_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>(INT)(PK)(NN) user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) right_id</a:t>
+            <a:t>(INT)(PK)(NN) right_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1649,7 +1777,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) subproject_id</a:t>
+            <a:t>(INT)(PK)(NN) subproject_id</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1660,13 +1788,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1685,13 +1813,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1724,10 +1852,26 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) user_id</a:t>
+            <a:t>(INT)(PK)(NN) user_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1750,7 +1894,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) right_id</a:t>
+            <a:t>(INT)(PK)(NN) right_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1773,7 +1917,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) task-group_id</a:t>
+            <a:t>(INT)(PK)(NN) task-group_id</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1784,13 +1928,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1809,13 +1953,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1848,17 +1992,49 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) user_id</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>(INT)(PK)(NN) user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) right_id</a:t>
+            <a:t>(INT)(PK)(NN) right_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1881,7 +2057,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) task_id</a:t>
+            <a:t>(INT)(PK)(NN) task_id</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1891,15 +2067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>392207</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1911,8 +2087,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6819901" y="2386013"/>
-          <a:ext cx="4152901" cy="1585912"/>
+          <a:off x="7048501" y="2957514"/>
+          <a:ext cx="2028265" cy="738187"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1924,13 +2100,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent3"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1943,15 +2119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1963,8 +2139,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7048501" y="3971925"/>
-          <a:ext cx="3924301" cy="14288"/>
+          <a:off x="7048500" y="3695699"/>
+          <a:ext cx="2095500" cy="862013"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1976,13 +2152,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent3"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1995,15 +2171,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2015,8 +2191,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7029451" y="3971924"/>
-          <a:ext cx="3943351" cy="1714501"/>
+          <a:off x="7029450" y="3695700"/>
+          <a:ext cx="2114550" cy="2562226"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2028,13 +2204,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent3"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2047,15 +2223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2067,8 +2243,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7029451" y="3971925"/>
-          <a:ext cx="3943351" cy="3714750"/>
+          <a:off x="7029450" y="3695699"/>
+          <a:ext cx="2114550" cy="4562475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2080,13 +2256,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent3"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2100,13 +2276,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2119,8 +2295,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667126" y="2381249"/>
-          <a:ext cx="1200149" cy="4764"/>
+          <a:off x="3640232" y="2952749"/>
+          <a:ext cx="1195667" cy="4764"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2132,13 +2308,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2152,13 +2328,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2184,13 +2360,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2204,13 +2380,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2236,13 +2412,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2256,13 +2432,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2288,13 +2464,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2308,13 +2484,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2324,8 +2500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10020300" y="6172200"/>
-          <a:ext cx="1952625" cy="1047750"/>
+          <a:off x="10020300" y="6743700"/>
+          <a:ext cx="2771775" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2333,13 +2509,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2372,10 +2548,26 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) id</a:t>
+            <a:t>(INT)(PK)(NN)(AI) id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2398,7 +2590,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(VARCHAR(64)) name</a:t>
+            <a:t>(VARCHAR(64))(NN)(UQ) name</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2421,7 +2613,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(INT) privilege</a:t>
+            <a:t>(INT)(NN)(UQ) privilege</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2431,14 +2623,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>376238</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2451,12 +2643,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5862638" y="476251"/>
-          <a:ext cx="4157662" cy="6219824"/>
+          <a:off x="5962650" y="1047751"/>
+          <a:ext cx="4057650" cy="6219824"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 38259"/>
+            <a:gd name="adj1" fmla="val 36737"/>
             <a:gd name="adj2" fmla="val 103675"/>
           </a:avLst>
         </a:prstGeom>
@@ -2465,13 +2657,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2484,14 +2676,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>496141</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2504,12 +2696,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5843588" y="1914527"/>
-          <a:ext cx="4176712" cy="4781549"/>
+          <a:off x="5942200" y="2486027"/>
+          <a:ext cx="4006382" cy="4781549"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 38312"/>
+            <a:gd name="adj1" fmla="val 36193"/>
             <a:gd name="adj2" fmla="val 104781"/>
           </a:avLst>
         </a:prstGeom>
@@ -2518,13 +2710,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2538,13 +2730,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>347664</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2557,7 +2749,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5834064" y="3495675"/>
+          <a:off x="5834064" y="4067175"/>
           <a:ext cx="4186237" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
@@ -2571,13 +2763,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2591,13 +2783,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>328614</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2610,7 +2802,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5815014" y="5191127"/>
+          <a:off x="5815014" y="5762627"/>
           <a:ext cx="4205287" cy="1504949"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
@@ -2624,13 +2816,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2644,13 +2836,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>328614</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2663,7 +2855,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5815014" y="6696074"/>
+          <a:off x="5815014" y="7267574"/>
           <a:ext cx="4205287" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -2674,14 +2866,550 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="3">
           <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="accent2"/>
         </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312085</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>597834</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Соединительная линия уступом 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="0"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5944160" y="-2864224"/>
+          <a:ext cx="1123951" cy="8757396"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20339"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Прямоугольник 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13430251" y="2085974"/>
+          <a:ext cx="2933699" cy="1133476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Table: department</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(PK)(AI) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(NN) company_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128))(NN) name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312085</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Соединительная линия уступом 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="0"/>
+          <a:endCxn id="60" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7891743" y="-4811807"/>
+          <a:ext cx="1133475" cy="12662086"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20168"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Прямоугольник 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16706851" y="2095499"/>
+          <a:ext cx="2933699" cy="1133476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Table: position</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(PK)(AI) id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(INT)(NN) company_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(VARCHAR(128))(NN) name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312084</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Соединительная линия уступом 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="0"/>
+          <a:endCxn id="81" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9512954" y="-6433017"/>
+          <a:ext cx="1143000" cy="15914033"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Shape 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="2"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13503088" y="2409264"/>
+          <a:ext cx="476250" cy="2096622"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>493060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Shape 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="2"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15133825" y="788053"/>
+          <a:ext cx="466725" cy="5348569"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2980,8 +3708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
